--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -5,42 +5,43 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Critical Path test" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Test cases" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Improvements" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_10742954_85DC_41BF_95C5_974CA284DD52_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1521F199_6F51_4B96_AF69_DFD6E5A59948_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_18E12BE6_5BE0_4DEE_9AD7_0A6C822D5D1E_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_25E61601_54D4_4DF5_9420_10EEDDEB8CD0_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_38DD1442_24D9_4DA6_B8D0_BF77726EC80E_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4004633E_3EB7_4A71_9B54_33CE8E2476D0_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4BC641D9_44D1_48CA_A2E8_D60FF2D16BA5_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4BD80E6A_F19B_488D_A100_857C2CB69C3E_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_5F45B89A_43AE_47CB_B4C3_C5F41EE6F1B4_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_782E29AF_2A40_4FC5_B31B_742BB284FEFE_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_793AC649_9D45_4710_99AE_B9C7A7B5C0E0_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_79405AD8_F17F_4C57_9485_033BC3E5DB29_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_7FEEB23E_9B4F_4161_A01D_4E0E62555D50_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8A3AABE0_F8AF_4EAE_8F30_89A1B8FEDCBC_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9E0603F2_17C3_46DE_96C7_2B055B19C810_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B34DDB5F_F5C1_4B53_A698_ED068265A80A_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0177061_A217_49C2_8125_93EF8BE93AE1_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E3B2859F_7E79_4251_ADE3_5D625F105F3F_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EAF3FAA5_36D1_4B73_8882_36E8A47ADFF8_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_ECB74D8E_9F8C_4B99_B8FD_5DF8448BF049_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_ED2E9076_6702_4C91_82C3_FE67E109266F_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_ED34FEAD_C443_458A_B34C_5CFFBF0982EE_.wvu.FilterData" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Critical Path test'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_10742954_85DC_41BF_95C5_974CA284DD52_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1521F199_6F51_4B96_AF69_DFD6E5A59948_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_18E12BE6_5BE0_4DEE_9AD7_0A6C822D5D1E_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_25E61601_54D4_4DF5_9420_10EEDDEB8CD0_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_38DD1442_24D9_4DA6_B8D0_BF77726EC80E_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4004633E_3EB7_4A71_9B54_33CE8E2476D0_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4BC641D9_44D1_48CA_A2E8_D60FF2D16BA5_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4BD80E6A_F19B_488D_A100_857C2CB69C3E_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_5F45B89A_43AE_47CB_B4C3_C5F41EE6F1B4_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_782E29AF_2A40_4FC5_B31B_742BB284FEFE_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_793AC649_9D45_4710_99AE_B9C7A7B5C0E0_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_79405AD8_F17F_4C57_9485_033BC3E5DB29_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_7FEEB23E_9B4F_4161_A01D_4E0E62555D50_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8A3AABE0_F8AF_4EAE_8F30_89A1B8FEDCBC_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9E0603F2_17C3_46DE_96C7_2B055B19C810_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B34DDB5F_F5C1_4B53_A698_ED068265A80A_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D0177061_A217_49C2_8125_93EF8BE93AE1_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E3B2859F_7E79_4251_ADE3_5D625F105F3F_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EAF3FAA5_36D1_4B73_8882_36E8A47ADFF8_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_ECB74D8E_9F8C_4B99_B8FD_5DF8448BF049_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_ED2E9076_6702_4C91_82C3_FE67E109266F_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_ED34FEAD_C443_458A_B34C_5CFFBF0982EE_.wvu.FilterData" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Test cases'!$B$1:$F$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Type</t>
   </si>
@@ -112,7 +113,7 @@
       <t>1. Enter some valid value in the field 'Username'
 2. Enter some valid value in the field 'Full name'
 3. Enter some valid value in the field 'Password'
-4. Click button 'Log In'</t>
+4. Click button 'Add'</t>
     </r>
   </si>
   <si>
@@ -173,7 +174,7 @@
         <charset val="204"/>
       </rPr>
       <t>1. Clear field 'Username'
-2. Click button 'Log In'</t>
+2. Click button 'Add'</t>
     </r>
   </si>
   <si>
@@ -232,7 +233,7 @@
       </rPr>
       <t>1. Enter some valid value in the field 'Username'
 2. Clear field 'Full name'
-3. Click button 'Log In'</t>
+3. Click button 'Add'</t>
     </r>
   </si>
   <si>
@@ -292,7 +293,7 @@
       <t>1. Enter some valid value in the field 'Username'
 2. Enter some valid value in the field 'Full name'
 3. Clear field 'Password'
-4. Click button 'Log In'</t>
+4. Click button 'Add'</t>
     </r>
   </si>
   <si>
@@ -355,7 +356,7 @@
       <t>1. Enter some valid value in the field 'Username'
 2. Enter some valid value in the field 'Full name'
 3. Enter one symbol in the field 'Password'
-4. Click button 'Log In'</t>
+4. Click button 'Add'</t>
     </r>
   </si>
   <si>
@@ -378,50 +379,146 @@
     <t>NEGATIVE TESTS</t>
   </si>
   <si>
-    <t>Limitation -4, DS-1.2, UR-1</t>
-  </si>
-  <si>
-    <r>
-      <t>Launching the app on Macintosh OS
+    <t>6</t>
+  </si>
+  <si>
+    <r>
+      <t>Data about added users displayed after page refresh
 </t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Preparation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Install and enable the extension mbstring.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1. Open the console.
-2. Into the command line enter valid command parameters.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. The console will open.
-2. The app will not launch.</t>
+        <color rgb="FF006699"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Preparation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: run application and open application url in browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Add several Users
+2. Refresh page</t>
+    </r>
+  </si>
+  <si>
+    <t>Data about added users is displayed.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <r>
+      <t>Scroll appears to see all added users
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Preparation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: run application and open application url in browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Add Users more than one page can displays.</t>
+    </r>
+  </si>
+  <si>
+    <t>Scroll appears and all users available to see.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Rename button “Log in” to “Add User”, because this button adds user, but don't perform log in some system.</t>
+  </si>
+  <si>
+    <r>
+      <t>Improve message for added user from:
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Name: &lt;Full name&gt; login: &lt;Username&gt; password &lt;Password&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>”
+to: 
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Full name: &lt;Full name&gt; Username: &lt;Username&gt; Password: &lt;Password&gt;”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Because message should be more clear and contains the same field name as added, that user can clearly understand what happened.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -432,7 +529,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -508,16 +605,22 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -577,7 +680,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -624,6 +727,18 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -650,7 +765,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF006699"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -659,7 +774,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FF006699"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -705,8 +820,8 @@
   </sheetPr>
   <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -845,20 +960,18 @@
       </c>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="10" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="10" customFormat="true" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -866,8 +979,20 @@
       </c>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11"/>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,4 +1016,57 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Type</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>POSITIVE TESTS</t>
+    <t>POSITIVE TESTS </t>
   </si>
   <si>
     <t>1</t>
@@ -83,7 +83,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -93,7 +93,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -104,7 +104,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -112,13 +112,88 @@
       </rPr>
       <t>1. Enter some valid value in the field 'Username'
 2. Enter some valid value in the field 'Full name'
-3. Enter some valid value in the field 'Password'
+3. Enter some valid value(min 6 symbols with numbers and letters) in the field 'Password'
 4. Click button 'Add'</t>
     </r>
   </si>
   <si>
     <r>
       <t>Status has message: </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>“user &lt;Username&gt; was created”.</t>
+    </r>
+  </si>
+  <si>
+    <t>This test case cover application requirement Story 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Story 2</t>
+  </si>
+  <si>
+    <r>
+      <t>Disallow user with empty Username field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Preparation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: run application and open application url in browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Clear field 'Username'
+2. Click button 'Add'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Status has message: </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>“Login cannot be empty”</t>
     </r>
     <r>
       <rPr>
@@ -129,24 +204,24 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>“user &lt;Username&gt; was created”.</t>
-    </r>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Story 2</t>
-  </si>
-  <si>
-    <r>
-      <t>Disallow user with empty Username field
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>This test case cover application requirement Story 2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <r>
+      <t>Disallow user with empty Name(Full name) field
 </t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -156,7 +231,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -167,65 +242,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1. Clear field 'Username'
-2. Click button 'Add'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Status has message: </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>“Login cannot be empty”.</t>
-    </r>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <r>
-      <t>Disallow user with empty Name(Full name) field
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF006699"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Preparation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF006699"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>: run application and open application url in browser
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -243,7 +260,7 @@
     <r>
       <rPr>
         <i val="true"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -263,7 +280,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -273,7 +290,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -284,7 +301,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -303,7 +320,7 @@
     <r>
       <rPr>
         <i val="true"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -313,6 +330,9 @@
     </r>
   </si>
   <si>
+    <t>NEGATIVE TESTS</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -326,7 +346,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -336,7 +356,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -347,7 +367,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -355,8 +375,10 @@
       </rPr>
       <t>1. Enter some valid value in the field 'Username'
 2. Enter some valid value in the field 'Full name'
-3. Enter one symbol in the field 'Password'
-4. Click button 'Add'</t>
+3. Enter five symbols in the field 'Password'
+4. Click button 'Add'
+5. Enter six only letters in the field 'Password'
+6. Click button 'Add'</t>
     </r>
   </si>
   <si>
@@ -366,7 +388,7 @@
     <r>
       <rPr>
         <i val="true"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -376,7 +398,7 @@
     </r>
   </si>
   <si>
-    <t>NEGATIVE TESTS</t>
+    <t>This test case cover application requirement Story 3</t>
   </si>
   <si>
     <t>6</t>
@@ -389,7 +411,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -399,7 +421,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -410,7 +432,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -424,6 +446,9 @@
     <t>Data about added users is displayed.</t>
   </si>
   <si>
+    <t>This test case check that data about added users is displayed after page refresh.</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -434,7 +459,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -444,7 +469,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF006699"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -455,7 +480,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -468,14 +493,23 @@
     <t>Scroll appears and all users available to see.</t>
   </si>
   <si>
+    <t>This test case check that data about all  added users can be available for user.</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>There was chosen for test only level of GUI. We don't need for integration tests, because there is only one page application that has no any communication with anything else. And we don't need Unit tests, because application is quite simple, and has no complicated code.</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Rename button “Log in” to “Add User”, because this button adds user, but don't perform log in some system.</t>
-  </si>
-  <si>
-    <r>
-      <t>Improve message for added user from:
+    <t>Renamed button “Log in” to “Add User”, because this button adds user, but don't perform log in some system.</t>
+  </si>
+  <si>
+    <r>
+      <t>Improved message for added user from:
 “</t>
     </r>
     <r>
@@ -519,6 +553,9 @@
       </rPr>
       <t>Because message should be more clear and contains the same field name as added, that user can clearly understand what happened.</t>
     </r>
+  </si>
+  <si>
+    <t>Improve password validation: added check for that password must have at least 6 symbols.</t>
   </si>
 </sst>
 </file>
@@ -529,7 +566,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -552,6 +589,19 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -559,21 +609,14 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -581,15 +624,30 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF006699"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006699"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF006699"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -603,8 +661,23 @@
       <charset val="204"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -680,7 +753,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -705,40 +778,68 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -821,14 +922,14 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8316326530612"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.2448979591837"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.3418367346939"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="33.1428571428571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="34"/>
@@ -837,7 +938,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -861,153 +962,186 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="7" customFormat="true" ht="120.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="12" customFormat="true" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="7" customFormat="true" ht="85.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" s="12" customFormat="true" ht="85.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="12" customFormat="true" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="7" customFormat="true" ht="117.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
+    <row r="5" s="12" customFormat="true" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
+      <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="7" customFormat="true" ht="114.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
+    <row r="6" s="12" customFormat="true" ht="171.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
+      <c r="E6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="10" customFormat="true" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+    <row r="7" s="13" customFormat="true" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+    <row r="8" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11"/>
-      <c r="G9" s="10"/>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="G11" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B9:G9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1023,10 +1157,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1037,27 +1171,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="B1" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="B2" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
+      <c r="B3" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
